--- a/Dataset/dataset 3/SM number.xlsx
+++ b/Dataset/dataset 3/SM number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A论文编辑\数据集及代码\dataset1\Dataset\dataset 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome download\Github\AMCSMMA\AMCSMMA\Dataset\dataset 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AC6903-7955-4EE3-9993-244E15C6F852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99304EFE-AF32-49D4-8AE7-C74C40F6AA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2835,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E831"/>
+  <dimension ref="A1:B831"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A819" workbookViewId="0">
-      <selection activeCell="D833" sqref="D833"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9371,7 +9371,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>816</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>817</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>818</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>819</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>820</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>821</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>822</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>823</v>
       </c>
@@ -9435,18 +9435,15 @@
         <v>823</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>824</v>
       </c>
       <c r="B825">
         <v>824</v>
       </c>
-      <c r="E825">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>825</v>
       </c>
@@ -9454,7 +9451,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>826</v>
       </c>
@@ -9462,7 +9459,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>827</v>
       </c>
@@ -9470,7 +9467,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>828</v>
       </c>
@@ -9478,7 +9475,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>829</v>
       </c>
@@ -9486,7 +9483,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>830</v>
       </c>
